--- a/biology/Médecine/1484_en_santé_et_médecine/1484_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1484_en_santé_et_médecine/1484_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1484_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1484_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1484 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1484_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1484_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Juillet : en confirmant par lettres patentes les privilèges des chirurgiens de Paris, le roi Charles VIII exclut les femmes de la profession, à l'exception des femmes de chirurgien[1],[2].
-Août : un édit du roi Charles VIII interdit aux épiciers d'exercer le métier d'apothicaire[3],[2].
-Dans la bulle Summis desiderantis affectibus, consacrée à la condamnation de la sorcellerie, le pape Innocent VIII interdit l'usage médicinal du cannabis, qu'il associe à des pratiques sataniques[4].
-L'unique chaire de la faculté de médecine de Besançon, en Franche-Comté, est transférée à Dole avec l'ensemble de l'université[5].
-La maison des infirmes de Bourges (Domus infirmorum bituricensis), ainsi désignée depuis 1218 et dont la fondation remonte à 580, prend le nom de « Grand Hôtel-Dieu[6] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Juillet : en confirmant par lettres patentes les privilèges des chirurgiens de Paris, le roi Charles VIII exclut les femmes de la profession, à l'exception des femmes de chirurgien,.
+Août : un édit du roi Charles VIII interdit aux épiciers d'exercer le métier d'apothicaire,.
+Dans la bulle Summis desiderantis affectibus, consacrée à la condamnation de la sorcellerie, le pape Innocent VIII interdit l'usage médicinal du cannabis, qu'il associe à des pratiques sataniques.
+L'unique chaire de la faculté de médecine de Besançon, en Franche-Comté, est transférée à Dole avec l'ensemble de l'université.
+La maison des infirmes de Bourges (Domus infirmorum bituricensis), ainsi désignée depuis 1218 et dont la fondation remonte à 580, prend le nom de « Grand Hôtel-Dieu ».</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1484_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1484_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Herbarius latinus, compilation anonyme sur les plantes médicinales, attribuée par erreur à Arnaud de Villeneuve (1235-1511), éditée à Mayence chez Pierre Schoeffer et premier ouvrage médical à contenir des planches imprimées[7].
-Première édition, à Venise, chez Andrea Torresano et Batolomeo de Blavis, par Nicoletto Vernia, des Commentaires d'Averroès (1126-1198) sur le Canon d'Avicenne[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Herbarius latinus, compilation anonyme sur les plantes médicinales, attribuée par erreur à Arnaud de Villeneuve (1235-1511), éditée à Mayence chez Pierre Schoeffer et premier ouvrage médical à contenir des planches imprimées.
+Première édition, à Venise, chez Andrea Torresano et Batolomeo de Blavis, par Nicoletto Vernia, des Commentaires d'Averroès (1126-1198) sur le Canon d'Avicenne.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1484_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1484_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1445-1484 : fl. Jean Boadel, né à Barcelone, bachelier en médecine, établi à Marseille, médecin de l'hôpital Saint-Jacques-de-Gallice[9].
-1450-1484 : fl. Bernard Boyer, né dans le diocèse de Castres, licencié en médecine, médecin de la commune de Marseille[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1445-1484 : fl. Jean Boadel, né à Barcelone, bachelier en médecine, établi à Marseille, médecin de l'hôpital Saint-Jacques-de-Gallice.
+1450-1484 : fl. Bernard Boyer, né dans le diocèse de Castres, licencié en médecine, médecin de la commune de Marseille.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1484_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1484_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Déodat Bassol (né à une date inconnue), médecin ordinaire du roi Louis XI, chancelier de la faculté de médecine de Montpellier[10].
-Claude de Moulins (né à une date inconnue), médecin du roi Louis XI, protecteur du collège de Péronne[10].
-Vers 1483-1484 : Jean de Coulogne (né à une date inconnue), médecin, astrologue de Philippe le Bon, attesté à la cour de Bourgogne de 1436 à 1462[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Déodat Bassol (né à une date inconnue), médecin ordinaire du roi Louis XI, chancelier de la faculté de médecine de Montpellier.
+Claude de Moulins (né à une date inconnue), médecin du roi Louis XI, protecteur du collège de Péronne.
+Vers 1483-1484 : Jean de Coulogne (né à une date inconnue), médecin, astrologue de Philippe le Bon, attesté à la cour de Bourgogne de 1436 à 1462.</t>
         </is>
       </c>
     </row>
